--- a/8_Docs/11_AbhiRam/Abhiram_NC/Abhiram_Naming_Ceremony.xlsx
+++ b/8_Docs/11_AbhiRam/Abhiram_NC/Abhiram_Naming_Ceremony.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Desktop/Abhiram_NC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/8_Docs/11_AbhiRam/Abhiram_NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="11_F25DC773A252ABDACC1048FEE9DB76AE5BDE58F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F18543-78D3-4275-B10F-428A34D8093F}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="11_F25DC773A252ABDACC1048FEE9DB76AE5BDE58F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BE0F83-936F-4A5A-AF1C-BEC599E660ED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>S.No</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Tables+ Frill</t>
   </si>
   <si>
-    <t>coolers</t>
-  </si>
-  <si>
     <t>Pujari donate</t>
   </si>
   <si>
@@ -189,6 +186,12 @@
   </si>
   <si>
     <t>Paan</t>
+  </si>
+  <si>
+    <t>Table fans</t>
+  </si>
+  <si>
+    <t>Mohan Divi</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:S25"/>
+  <dimension ref="E4:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -699,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="S6" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.3">
@@ -764,7 +767,7 @@
         <v>200</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -793,7 +796,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -811,14 +814,16 @@
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O10" s="10">
         <v>2</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="2">
+        <v>600</v>
+      </c>
       <c r="R10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S10" s="3">
         <f>(50*30)</f>
@@ -846,14 +851,14 @@
       </c>
       <c r="P11" s="11">
         <f>SUM(P5:P10)</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="S11" s="4">
         <f>SUM(S5:S10)</f>
-        <v>15700</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="12" spans="5:19" x14ac:dyDescent="0.3">
@@ -976,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="2">
         <v>50</v>
@@ -1082,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -1090,15 +1095,27 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="2">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="5">
-        <f>SUM(G5:G24)</f>
-        <v>52</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G26" s="5">
+        <f>SUM(G5:G25)</f>
+        <v>55</v>
+      </c>
+      <c r="H26" s="5">
         <f>SUM(H5:H23)</f>
         <v>17</v>
       </c>
